--- a/500all/speech_level/speeches_CHRG-114hhrg23443.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23443.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="532">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Chaffetz. The Committee on Oversight and Government Reform will come to order.    And without objection, the chair is authorized to declare a recess at any time.    We have an important hearing today, always good to be talking about this topic. We have had a number of hearings on this. We do appreciate all the panel members that are going to be here. I do have an opening statement, but in the essence of time, I am going to simply submit that for the record.</t>
   </si>
   <si>
@@ -70,18 +67,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Sopko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sopko. Thank you very much. Chairman Chaffetz, Ranking Member Cummings, and members of the committee, it is a pleasure, as always, to testify before this committee and to testify about SIGAR's inspections of facilities and infrastructure built and renovated by the Department of Defense in Afghanistan. SIGAR has issued 37 inspection reports examining 45 DOD reconstruction projects in Afghanistan with a combined value of approximately $1.1 billion.    Although these projects do not constitute a representative statistical sample of all DOD projects, they do provide us a valuable insight into the challenges facing reconstruction efforts in Afghanistan. And I would like to focus on five key takeaways from our work.    First, my inspection team found that some of the projects were well-built and met contract requirements and technical specifications. However, most did not.    Secondly, we at SIGAR understand that reconstruction is difficult in Afghanistan. We also recognize that DOD and its components have taken steps to improve the efficiency and effectiveness of reconstruction projects. For example, DOD has generally been responsive to the recommendations in our inspection reports and has implemented 79 of the 100 recommendations we've made.    Thirdly, despite these efforts, many of the projects we inspected had significant deficiencies caused in part by common and recurring problems such as unqualified contractors, poor workmanship, and inadequate oversight by DOD officials.    Fourthly, despite these problems, many contractors were still paid the full contract amount and not held accountable for their shoddy workmanship.    Fifth, we continue to be concerned--and I think this is an important point--we continue to be concerned about the Afghan Government's ability to sustain the numerous facilities DOD has built or transferred for it. Although we're not focusing on other agencies, we're also concerned about the buildings that USAID has built for the Afghan Government and transferred to it, as well as the State Department.    Looking at just the base transfers alone, DOD has donated 391 former U.S. military bases worth approximately $858 million to the Afghan Government since 2010. They all have to be maintained. The Afghan Government has proven itself unable to operate and maintain its facilities on a wide scale. For Afghan security forces facilities in particular, DOD is still spending millions of dollars each year in operation and maintenance services at many of them because the Afghans cannot do so themselves.    In light of these concerns, I was troubled to learn during my most recent trip to Afghanistan that our ongoing inspection of the new Ministry of Interior headquarters complex in Kabul uncovered extensive renovations being made to the headquarters building after it was supposed to have been completed, including installing dropped ceilings, tearing out recently poured concrete floors, tearing out electrical fixtures, and then replacing some of those floors with marble flooring in certain VIP and VVIP offices.    It appears DOD has contracted for these and other ``enhancements'' which are, according to the Statement of Work, ``to improve the aesthetics of the internal finishes.'' These enhancements are not only more costly and require more expertise to maintain but also replace features the Army Corps of Engineers originally constructed in accordance with DOD's own contingency construction standards issued in 2009.    Examples like this, combined with the Afghan Government's existing inability to operate and maintain its facilities, means the U.S. taxpayer will continue to expend funds indefinitely to sustain some of the facilities DOD has built.    And in conclusion, to enhance the administration and oversight of its reconstruction projects in Afghanistan, DOD should continue to improve its project planning and design process, guarantee contractors are qualified and capable, and conduct the oversight needed to ensure that facilities are built correctly and contracts are held accountable.    DOD should also continue to work with the Afghan Government to enhance its ability to operate, maintain, and sustain its facilities.    SIGAR will continue to work with DOD and Congress as it continues to oversee the critical work the United States and its coalition partners are undertaking, and we thank you for the opportunity to testify today about those efforts.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Chaffetz. Thank you, Mr. Sopko. And I appreciate the diligent work that you and your team do in a very, very difficult place.    And, Ms. Abizaid, I can't thank enough the men and women who actually serve in the military, again, very difficult conditions at best. We know how difficult it is. But we would appreciate the Department of Defense's perspective, and so we will now recognize you for 5 minutes.</t>
   </si>
   <si>
-    <t>Abizaid</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Abizaid. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -109,9 +100,6 @@
     <t>400273</t>
   </si>
   <si>
-    <t>John L. Mica</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mica. Thank you, Mr. Chairman.    To try to comprehend the scope of the spending that's gone on in the U.S. money, I think the inspector general had said--was it $110 billion from 2002 to 2013? Is that defense money or is that all of the aid that has gone into Afghanistan?</t>
   </si>
   <si>
@@ -244,9 +232,6 @@
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. I want to thank the witnesses here today. Mr. Sopko, good to see you again.    I have got a couple of quick questions. Any of our panel members, have you been dealing at all with the Kunduz situation where we accidentally attacked that hospital in a firefight?</t>
   </si>
   <si>
@@ -304,9 +289,6 @@
     <t xml:space="preserve">    Mr. Lynch. Thank you.</t>
   </si>
   <si>
-    <t>Strickley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Strickley. Yes, sir. We do use the same FAR procedures in Afghanistan as we use in the United States or elsewhere in the world. The difference is when we contract with these small Afghan firms, we're trying to build construction capacity in the country.</t>
   </si>
   <si>
@@ -331,9 +313,6 @@
     <t>400116</t>
   </si>
   <si>
-    <t>John J. Duncan, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. Well, thank you, Mr. Chairman, and thank you for holding this hearing.    The easiest thing in the world is to spend other people's money, and unfortunately, we have seen over and over and over and over again that there apparently are no fiscal conservatives at the Pentagon. They can say they are good stewards of the public's money, but actions speak much louder than words. And Mr. Sopko's 30-something reports have listed hundreds of examples of just ridiculous waste. I mean, I have got in front of me an NPR report with $770 million on aircraft for Afghanistan that the military can't use, a report that was in all kinds of papers, $34 million on a white elephant headquarters that will never be used.    In fact, in the NPR report Mr. Sopko is quoted as saying ``the joke in my office is we will eventually see a base where on one side of the base they are destroying it while on the other side they are building it, and then they will probably meet in the middle.'' It is really sad. One organization that looked at this found $17 billion in waste.    There has been so much waste in Iraq and Afghanistan. I know that a few days ago I think a Senate committee got very upset about a hearing about $6 million spent on nine blond goats from Italy. Are you familiar with the blond goats, Mr. Sopko?</t>
   </si>
   <si>
@@ -349,9 +328,6 @@
     <t>412644</t>
   </si>
   <si>
-    <t>Bonnie Watson Coleman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Watson Coleman. Thank you, Mr. Chairman.    Mr. Lynch actually was starting a line of questioning I was interested in, so I would like to just yield to him.</t>
   </si>
   <si>
@@ -415,9 +391,6 @@
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you, Mr. Chairman, and thanks to the panel for being here.    Mr. Sopko, for the past two Congresses, as you know, the House has passed multiple amendments to limit funding or reduce funding for the Afghanistan Infrastructure Fund, some of my amendments as well. Unfortunately, these bipartisan amendments don't get through and into the spending packages because of the insistence by DOD that additional funding sources are needed to finish the projects.    I understand that we look to our commanders in the field. We want their guidance. We want to know what they think is necessary to finish the important job that they are doing, but should DOD also fully analyze the costs of particular projects and whether the Afghans will be able to maintain these projects before we allocate additional resources?</t>
   </si>
   <si>
@@ -484,9 +457,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman.    Mr. Sopko, welcome back. I have to say, listening to this and reading your report, you know, there is a French expression plus ca change, plus c'est la meme chose, you know, the more things change, the more they stay the same, echoes of Vietnam, echoes of other large investments both by DOD and AID and the same old story, can't keep track of it, billions wasted, had to, you know, demolish it.    I am looking at your report, for example. Your report, inter alia, on the inspection of six Afghan National Police district facilities in Helmand and Kandahar Provinces in 2010, one of the findings in that report was there was poor contractor performance to say the least. One of your report's recommendations was to ensure that identified construction deficiencies of future projects be paid for by the responsible contractor instead of the U.S. Government. By the way, was that recommendation accepted?</t>
   </si>
   <si>
@@ -661,9 +631,6 @@
     <t>412595</t>
   </si>
   <si>
-    <t>Robin L. Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you, Mr. Chair.    Today, SIGAR released a report looking back at 6 years of DOD reconstruction projects in Afghanistan. Reports such as these, as well as those by various inspectors general and GAO, are critical to our ability to learn lessons from problems today and improve our efforts in the future. In fact, although U.S. forces in Afghanistan were critical about parts of SIGAR's report in their comments, they highlighted, ``the value of this report lies in consolidating lessons which may benefit organizations charged with construction efforts in similar environments.    Mr. Sopko, how else would you suggest DOD ensure lessons such as these are incorporated into their mission? And I have a cold. Excuse me.</t>
   </si>
   <si>
@@ -697,9 +664,6 @@
     <t xml:space="preserve">    Mr. Strickley. I couldn't begin to estimate that. I don't know. In many cases what happened was the contractor was just unable to perform, so the buildings were not delivered when we wanted them to be delivered. So in some cases you see that facilities were completed and then never used. Well, that's part of the--what caused that. The Corps of Engineers simply was not able to do the--complete the construction in the time that we wanted to. Thank you.</t>
   </si>
   <si>
-    <t>Brown</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brown. Yes, ma'am, I just would like to address, in addition to what the Corps has already mentioned, a couple other things. I think for us some of the lessons learned that were critical what is that we need to adapt the facilities to the local needs, and so looking at what is available in the local market that can be sustained over time.    So sometimes we may look at bringing in a U.S. construction technique or design and put it into a country where maybe those materials aren't available in that country or its--it will be very difficult to sustain. So while we are sure that we used the right standards for safety, we've learned that we need to adjust what we do, especially with the finishes, to make sure that that's sustainable over time.    Also, there's a code that we use, the Unified Facilities Code that all of DOD uses that we've recently just in late '13 have released that. And that addresses the kinds of things that we need to consider when we go into contingency operations.    For us within AFCEC we've also updated what we call our playbooks, which is our internal processes, so that both from a contingency perspective and work we do for military construction, we've bounced those lessons learned off each other so that we understand from a standards perspective what we should be doing and also what we've learned from these contingency operations to make sure that in the future, as we support the military, that we've captured those lessons learned, they're in our processes, and they'll be there when the next folks are called upon to do something like this.</t>
   </si>
   <si>
@@ -712,9 +676,6 @@
     <t>412503</t>
   </si>
   <si>
-    <t>Thomas Massie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Massie. Thank you, Mr. Chairman.    Mr. Sopko, did you testified that $113 billion has been spent in Afghanistan since 2002?</t>
   </si>
   <si>
@@ -829,9 +790,6 @@
     <t>400251</t>
   </si>
   <si>
-    <t>Carolyn B. Maloney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Maloney. This is one of the most depressing hearings I have ever sat through. It is just terrible what we are hearing. And I think at the very least you can start a policy that you don't build any more buildings unless you have proof that they can operate them and maintain them. That is ridiculous that you have to build a building and then operate and maintain it for additional cost. That is insanity to continue doing that. I don't see why we don't immediately stop that process.    And Mr. Sopko's statement that he's trying to get a list of what works and what doesn't and can't even achieve that, I think Mr. Chairman or some of us should write a letter to support your efforts, and if they can't still give you that list, we should legislate it, put the force of law that they have got to give you this information. And it seems to be a lesson in mismanagement.    And my first question is to Mr. Brown from DOD. And I would like you to briefly explain the difference between a cost plus fixed fee and a firm fixed price contract. And I note an IG report of the Afghan Ministry of Defense, the Air Force Civil Engineers Center awarded a $48 million cost plus fixed fee contract to construct the building by 2010, and it ended up after 14 contract modifications, the cost was more than double at $107 million. Is that right, Mr. Brown? It is almost unbelievable.</t>
   </si>
   <si>
@@ -871,9 +829,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman.    Mr. Sopko, you made, to me, a powerful statement. Earlier you said in regard to the reconstruction that we built too much too fast with too little oversight. And unfortunately, it appears that that is a nagging, negative principle that it seems as though, at least many feel the pain that that is a principle our entire government right now seems to embrace. At least many people feel that way.    But within the context of that statement, we built too much too fast, too little oversight, how many infrastructure projects in Afghanistan are currently in development?</t>
   </si>
   <si>
@@ -991,9 +946,6 @@
     <t>400090</t>
   </si>
   <si>
-    <t>Elijah E. Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much.    Mr. Sopko, first of all, welcome back. It is good to see you again.    One of the largest infrastructure projects in Afghanistan was the new Ministry of Defense headquarters, which has been dubbed a mini-Pentagon. This project cost about $200 million with a significant portion of that coming from U.S. taxpayers. In your report you say this project took almost 5 years longer to complete than anticipated and cost more than three times the original estimate. You found that one of the key reasons for this delay was security issues. In fact, there were multiple reports of suicide bomb attacks at or near the site during construction, is that correct?</t>
   </si>
   <si>
@@ -1193,9 +1145,6 @@
   </si>
   <si>
     <t>412622</t>
-  </si>
-  <si>
-    <t>Earl L. "Buddy" Carter</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman.    Ms. Abizaid--I am sorry--the report that was released today by SIGAR points to many issues about contractor performance in Afghanistan. And would you agree that the poor contractor performance has hindered the Department of Defense's rebuilding efforts?</t>
@@ -2059,11 +2008,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2085,11 +2032,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2111,11 +2056,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2137,11 +2080,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2161,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2189,11 +2128,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2213,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2241,11 +2176,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2265,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2293,11 +2224,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2317,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2345,11 +2272,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2369,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2397,11 +2320,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2421,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2447,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2473,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
         <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2499,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2525,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2551,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2577,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2603,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2629,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2655,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2681,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2707,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2733,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2759,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2785,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2811,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2837,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2863,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2889,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2915,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2941,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2967,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2993,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3019,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3045,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3071,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3097,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3123,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3149,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3175,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
-      </c>
-      <c r="G45" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3201,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3227,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3253,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3279,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3305,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3331,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3357,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G52" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3383,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3409,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3435,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3461,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3487,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3513,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3541,11 +3376,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3565,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G60" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3591,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3617,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
-      </c>
-      <c r="G62" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3643,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3669,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>75</v>
-      </c>
-      <c r="G64" t="s">
+        <v>71</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
         <v>76</v>
-      </c>
-      <c r="H64" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3695,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3721,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3747,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>75</v>
-      </c>
-      <c r="G67" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3773,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3799,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
-      </c>
-      <c r="G69" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3825,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3851,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>75</v>
-      </c>
-      <c r="G71" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3877,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3903,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>75</v>
-      </c>
-      <c r="G73" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3929,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>75</v>
-      </c>
-      <c r="G74" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3955,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>75</v>
-      </c>
-      <c r="G75" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3981,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4007,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>75</v>
-      </c>
-      <c r="G77" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4033,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4059,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>75</v>
-      </c>
-      <c r="G79" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4085,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4111,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>75</v>
-      </c>
-      <c r="G81" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4137,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4163,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>75</v>
-      </c>
-      <c r="G83" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4189,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4215,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>75</v>
-      </c>
-      <c r="G85" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4243,11 +4024,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4267,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>104</v>
-      </c>
-      <c r="G87" t="s">
-        <v>105</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4293,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4319,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>104</v>
-      </c>
-      <c r="G89" t="s">
-        <v>105</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4347,11 +4120,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4371,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>110</v>
-      </c>
-      <c r="G91" t="s">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4397,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>75</v>
-      </c>
-      <c r="G92" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4423,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
-      </c>
-      <c r="G93" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4449,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>75</v>
-      </c>
-      <c r="G94" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4475,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
-      </c>
-      <c r="G95" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4501,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>75</v>
-      </c>
-      <c r="G96" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4527,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>75</v>
-      </c>
-      <c r="G97" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4553,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4579,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>75</v>
-      </c>
-      <c r="G99" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4605,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4631,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>75</v>
-      </c>
-      <c r="G101" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4657,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4683,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>75</v>
-      </c>
-      <c r="G103" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4709,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4735,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>75</v>
-      </c>
-      <c r="G105" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4761,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>75</v>
-      </c>
-      <c r="G106" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4787,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4813,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>75</v>
-      </c>
-      <c r="G108" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4839,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4865,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>75</v>
-      </c>
-      <c r="G110" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4891,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>75</v>
-      </c>
-      <c r="G111" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4917,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>75</v>
-      </c>
-      <c r="G112" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4945,11 +4672,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4969,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>132</v>
-      </c>
-      <c r="G114" t="s">
-        <v>133</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4995,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
-      </c>
-      <c r="G115" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5021,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>132</v>
-      </c>
-      <c r="G116" t="s">
-        <v>133</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5047,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5073,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>132</v>
-      </c>
-      <c r="G118" t="s">
-        <v>133</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5099,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
-      </c>
-      <c r="G119" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5125,13 +4838,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>132</v>
-      </c>
-      <c r="G120" t="s">
-        <v>133</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5151,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
-      </c>
-      <c r="G121" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5177,13 +4886,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>132</v>
-      </c>
-      <c r="G122" t="s">
+        <v>124</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
         <v>133</v>
-      </c>
-      <c r="H122" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5203,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
-      </c>
-      <c r="G123" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5229,13 +4934,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>132</v>
-      </c>
-      <c r="G124" t="s">
-        <v>133</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5255,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>17</v>
-      </c>
-      <c r="G125" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5281,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
-      </c>
-      <c r="G126" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5309,11 +5008,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5333,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5359,13 +5054,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>132</v>
-      </c>
-      <c r="G129" t="s">
-        <v>133</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5385,13 +5078,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
-      </c>
-      <c r="G130" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5411,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>132</v>
-      </c>
-      <c r="G131" t="s">
-        <v>133</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5437,13 +5126,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5463,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>132</v>
-      </c>
-      <c r="G133" t="s">
-        <v>133</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5491,11 +5176,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5515,13 +5198,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>155</v>
-      </c>
-      <c r="G135" t="s">
-        <v>156</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5541,13 +5222,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5567,13 +5246,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>155</v>
-      </c>
-      <c r="G137" t="s">
-        <v>156</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5593,13 +5270,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
-      </c>
-      <c r="G138" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5619,13 +5294,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>155</v>
-      </c>
-      <c r="G139" t="s">
-        <v>156</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5645,13 +5318,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
-      </c>
-      <c r="G140" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5671,13 +5342,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>155</v>
-      </c>
-      <c r="G141" t="s">
-        <v>156</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5697,13 +5366,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>155</v>
-      </c>
-      <c r="G142" t="s">
-        <v>156</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5723,13 +5390,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>17</v>
-      </c>
-      <c r="G143" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5749,13 +5414,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
+        <v>146</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
         <v>155</v>
-      </c>
-      <c r="G144" t="s">
-        <v>156</v>
-      </c>
-      <c r="H144" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5777,11 +5440,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5801,13 +5462,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
-      </c>
-      <c r="G146" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5829,11 +5488,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5853,13 +5510,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>17</v>
-      </c>
-      <c r="G148" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5881,11 +5536,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5905,13 +5558,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
-      </c>
-      <c r="G150" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5933,11 +5584,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5957,13 +5606,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>17</v>
-      </c>
-      <c r="G152" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5985,11 +5632,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6011,11 +5656,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6035,13 +5678,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6063,11 +5704,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6087,13 +5726,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>17</v>
-      </c>
-      <c r="G157" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6115,11 +5752,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6139,13 +5774,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>17</v>
-      </c>
-      <c r="G159" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6165,13 +5798,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>17</v>
-      </c>
-      <c r="G160" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6193,11 +5824,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6217,13 +5846,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>17</v>
-      </c>
-      <c r="G162" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6245,11 +5872,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6269,13 +5894,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>17</v>
-      </c>
-      <c r="G164" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6297,11 +5920,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6321,13 +5942,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>17</v>
-      </c>
-      <c r="G166" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6349,11 +5968,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6375,11 +5992,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6399,13 +6014,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>17</v>
-      </c>
-      <c r="G169" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6427,11 +6040,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6451,13 +6062,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>17</v>
-      </c>
-      <c r="G171" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6479,11 +6088,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>12</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6503,13 +6110,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>17</v>
-      </c>
-      <c r="G173" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6531,11 +6136,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6555,13 +6158,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>17</v>
-      </c>
-      <c r="G175" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6581,13 +6182,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>17</v>
-      </c>
-      <c r="G176" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6609,11 +6208,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6633,13 +6230,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>17</v>
-      </c>
-      <c r="G178" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6661,11 +6256,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6685,13 +6278,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>17</v>
-      </c>
-      <c r="G180" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6713,11 +6304,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6739,11 +6328,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>12</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6763,13 +6350,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>17</v>
-      </c>
-      <c r="G183" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6791,11 +6376,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>12</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6815,13 +6398,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>17</v>
-      </c>
-      <c r="G185" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6843,11 +6424,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6867,13 +6446,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>17</v>
-      </c>
-      <c r="G187" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6895,11 +6472,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6919,13 +6494,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>17</v>
-      </c>
-      <c r="G189" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6947,11 +6520,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6971,13 +6542,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>17</v>
-      </c>
-      <c r="G191" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6999,11 +6568,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7023,13 +6590,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>214</v>
-      </c>
-      <c r="G193" t="s">
-        <v>215</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7049,13 +6614,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>17</v>
-      </c>
-      <c r="G194" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7075,13 +6638,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>214</v>
-      </c>
-      <c r="G195" t="s">
-        <v>215</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7101,13 +6662,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>17</v>
-      </c>
-      <c r="G196" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7127,13 +6686,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>214</v>
-      </c>
-      <c r="G197" t="s">
-        <v>215</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7153,13 +6710,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>17</v>
-      </c>
-      <c r="G198" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7179,13 +6734,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>214</v>
-      </c>
-      <c r="G199" t="s">
-        <v>215</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7205,13 +6758,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>17</v>
-      </c>
-      <c r="G200" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7231,13 +6782,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>214</v>
-      </c>
-      <c r="G201" t="s">
-        <v>215</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7257,13 +6806,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
+        <v>204</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
         <v>214</v>
-      </c>
-      <c r="G202" t="s">
-        <v>215</v>
-      </c>
-      <c r="H202" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7283,13 +6830,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>17</v>
-      </c>
-      <c r="G203" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7309,13 +6854,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>17</v>
-      </c>
-      <c r="G204" t="s">
-        <v>227</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7335,13 +6878,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>214</v>
-      </c>
-      <c r="G205" t="s">
-        <v>215</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7363,11 +6904,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7387,13 +6926,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>231</v>
-      </c>
-      <c r="G207" t="s">
-        <v>232</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7413,13 +6950,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>17</v>
-      </c>
-      <c r="G208" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7439,13 +6974,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>231</v>
-      </c>
-      <c r="G209" t="s">
-        <v>232</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7465,13 +6998,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>17</v>
-      </c>
-      <c r="G210" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7491,13 +7022,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>231</v>
-      </c>
-      <c r="G211" t="s">
-        <v>232</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7517,13 +7046,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>17</v>
-      </c>
-      <c r="G212" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7543,13 +7070,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>231</v>
-      </c>
-      <c r="G213" t="s">
-        <v>232</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7569,13 +7094,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>17</v>
-      </c>
-      <c r="G214" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7595,13 +7118,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>231</v>
-      </c>
-      <c r="G215" t="s">
-        <v>232</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7621,13 +7142,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>17</v>
-      </c>
-      <c r="G216" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7647,13 +7166,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>231</v>
-      </c>
-      <c r="G217" t="s">
-        <v>232</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7673,13 +7190,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>17</v>
-      </c>
-      <c r="G218" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7699,13 +7214,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>231</v>
-      </c>
-      <c r="G219" t="s">
+        <v>219</v>
+      </c>
+      <c r="G219" t="s"/>
+      <c r="H219" t="s">
         <v>232</v>
-      </c>
-      <c r="H219" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7725,13 +7238,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>17</v>
-      </c>
-      <c r="G220" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7751,13 +7262,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>231</v>
-      </c>
-      <c r="G221" t="s">
-        <v>232</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7777,13 +7286,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>17</v>
-      </c>
-      <c r="G222" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7803,13 +7310,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>231</v>
-      </c>
-      <c r="G223" t="s">
-        <v>232</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7829,13 +7334,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>17</v>
-      </c>
-      <c r="G224" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7855,13 +7358,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>231</v>
-      </c>
-      <c r="G225" t="s">
-        <v>232</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7881,13 +7382,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>17</v>
-      </c>
-      <c r="G226" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7907,13 +7406,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>231</v>
-      </c>
-      <c r="G227" t="s">
-        <v>232</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7933,13 +7430,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>17</v>
-      </c>
-      <c r="G228" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7959,13 +7454,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>231</v>
-      </c>
-      <c r="G229" t="s">
-        <v>232</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7985,13 +7478,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>17</v>
-      </c>
-      <c r="G230" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8011,13 +7502,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>231</v>
-      </c>
-      <c r="G231" t="s">
-        <v>232</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8037,13 +7526,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>17</v>
-      </c>
-      <c r="G232" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8063,13 +7550,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>231</v>
-      </c>
-      <c r="G233" t="s">
-        <v>232</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8089,13 +7574,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>17</v>
-      </c>
-      <c r="G234" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8115,13 +7598,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>17</v>
-      </c>
-      <c r="G235" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8141,13 +7622,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>231</v>
-      </c>
-      <c r="G236" t="s">
-        <v>232</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8167,13 +7646,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>17</v>
-      </c>
-      <c r="G237" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8193,13 +7670,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>231</v>
-      </c>
-      <c r="G238" t="s">
-        <v>232</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8221,11 +7696,9 @@
       <c r="F239" t="s">
         <v>11</v>
       </c>
-      <c r="G239" t="s">
-        <v>12</v>
-      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8245,13 +7718,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>17</v>
-      </c>
-      <c r="G240" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8271,13 +7742,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>231</v>
-      </c>
-      <c r="G241" t="s">
-        <v>232</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8297,13 +7766,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>17</v>
-      </c>
-      <c r="G242" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8325,11 +7792,9 @@
       <c r="F243" t="s">
         <v>11</v>
       </c>
-      <c r="G243" t="s">
-        <v>12</v>
-      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8349,13 +7814,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>270</v>
-      </c>
-      <c r="G244" t="s">
-        <v>271</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8375,13 +7838,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>17</v>
-      </c>
-      <c r="G245" t="s">
-        <v>227</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8401,13 +7862,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>270</v>
-      </c>
-      <c r="G246" t="s">
-        <v>271</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8427,13 +7886,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>17</v>
-      </c>
-      <c r="G247" t="s">
-        <v>227</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8453,13 +7910,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>270</v>
-      </c>
-      <c r="G248" t="s">
-        <v>271</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8479,13 +7934,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>17</v>
-      </c>
-      <c r="G249" t="s">
-        <v>227</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8505,13 +7958,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>17</v>
-      </c>
-      <c r="G250" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8531,13 +7982,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>270</v>
-      </c>
-      <c r="G251" t="s">
-        <v>271</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8557,13 +8006,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>17</v>
-      </c>
-      <c r="G252" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8583,13 +8030,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>17</v>
-      </c>
-      <c r="G253" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8609,13 +8054,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>270</v>
-      </c>
-      <c r="G254" t="s">
-        <v>271</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8637,11 +8080,9 @@
       <c r="F255" t="s">
         <v>11</v>
       </c>
-      <c r="G255" t="s">
-        <v>12</v>
-      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8661,13 +8102,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>284</v>
-      </c>
-      <c r="G256" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8687,13 +8126,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>17</v>
-      </c>
-      <c r="G257" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8713,13 +8150,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>284</v>
-      </c>
-      <c r="G258" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8739,13 +8174,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>284</v>
-      </c>
-      <c r="G259" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8765,13 +8198,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>17</v>
-      </c>
-      <c r="G260" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8791,13 +8222,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>284</v>
-      </c>
-      <c r="G261" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8817,13 +8246,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>17</v>
-      </c>
-      <c r="G262" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8843,13 +8270,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>284</v>
-      </c>
-      <c r="G263" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8869,13 +8294,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>17</v>
-      </c>
-      <c r="G264" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8895,13 +8318,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>284</v>
-      </c>
-      <c r="G265" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8921,13 +8342,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>17</v>
-      </c>
-      <c r="G266" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8947,13 +8366,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>284</v>
-      </c>
-      <c r="G267" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8973,13 +8390,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>284</v>
-      </c>
-      <c r="G268" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8999,13 +8414,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>17</v>
-      </c>
-      <c r="G269" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9025,13 +8438,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>17</v>
-      </c>
-      <c r="G270" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9051,13 +8462,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>284</v>
-      </c>
-      <c r="G271" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9077,13 +8486,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>17</v>
-      </c>
-      <c r="G272" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9103,13 +8510,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>284</v>
-      </c>
-      <c r="G273" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9129,13 +8534,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>17</v>
-      </c>
-      <c r="G274" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9155,13 +8558,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>17</v>
-      </c>
-      <c r="G275" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9181,13 +8582,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>284</v>
-      </c>
-      <c r="G276" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9207,13 +8606,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>284</v>
-      </c>
-      <c r="G277" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9233,13 +8630,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>17</v>
-      </c>
-      <c r="G278" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9259,13 +8654,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>17</v>
-      </c>
-      <c r="G279" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9285,13 +8678,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>17</v>
-      </c>
-      <c r="G280" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9311,13 +8702,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>284</v>
-      </c>
-      <c r="G281" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9337,13 +8726,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>17</v>
-      </c>
-      <c r="G282" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9363,13 +8750,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>284</v>
-      </c>
-      <c r="G283" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9389,13 +8774,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>17</v>
-      </c>
-      <c r="G284" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9415,13 +8798,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>284</v>
-      </c>
-      <c r="G285" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9441,13 +8822,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>284</v>
-      </c>
-      <c r="G286" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9467,13 +8846,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>284</v>
-      </c>
-      <c r="G287" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9493,13 +8870,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>17</v>
-      </c>
-      <c r="G288" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9519,13 +8894,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>284</v>
-      </c>
-      <c r="G289" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9545,13 +8918,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>17</v>
-      </c>
-      <c r="G290" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9571,13 +8942,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>284</v>
-      </c>
-      <c r="G291" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9597,13 +8966,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>17</v>
-      </c>
-      <c r="G292" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9623,13 +8990,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>284</v>
-      </c>
-      <c r="G293" t="s">
-        <v>285</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9651,11 +9016,9 @@
       <c r="F294" t="s">
         <v>11</v>
       </c>
-      <c r="G294" t="s">
-        <v>12</v>
-      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9675,13 +9038,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>324</v>
-      </c>
-      <c r="G295" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9701,13 +9062,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>17</v>
-      </c>
-      <c r="G296" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9727,13 +9086,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>324</v>
-      </c>
-      <c r="G297" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9753,13 +9110,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>17</v>
-      </c>
-      <c r="G298" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9779,13 +9134,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>324</v>
-      </c>
-      <c r="G299" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9805,13 +9158,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>17</v>
-      </c>
-      <c r="G300" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9831,13 +9182,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>324</v>
-      </c>
-      <c r="G301" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9857,13 +9206,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>17</v>
-      </c>
-      <c r="G302" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9883,13 +9230,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>324</v>
-      </c>
-      <c r="G303" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9909,13 +9254,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>17</v>
-      </c>
-      <c r="G304" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9935,13 +9278,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>324</v>
-      </c>
-      <c r="G305" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9961,13 +9302,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>17</v>
-      </c>
-      <c r="G306" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9987,13 +9326,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>324</v>
-      </c>
-      <c r="G307" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10013,13 +9350,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>17</v>
-      </c>
-      <c r="G308" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10039,13 +9374,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>324</v>
-      </c>
-      <c r="G309" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10065,13 +9398,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>17</v>
-      </c>
-      <c r="G310" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10091,13 +9422,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>17</v>
-      </c>
-      <c r="G311" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10117,13 +9446,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>324</v>
-      </c>
-      <c r="G312" t="s">
+        <v>309</v>
+      </c>
+      <c r="G312" t="s"/>
+      <c r="H312" t="s">
         <v>325</v>
-      </c>
-      <c r="H312" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10143,13 +9470,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>17</v>
-      </c>
-      <c r="G313" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10169,13 +9494,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>324</v>
-      </c>
-      <c r="G314" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10195,13 +9518,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>17</v>
-      </c>
-      <c r="G315" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10221,13 +9542,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>324</v>
-      </c>
-      <c r="G316" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10247,13 +9566,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>17</v>
-      </c>
-      <c r="G317" t="s">
-        <v>227</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10273,13 +9590,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>324</v>
-      </c>
-      <c r="G318" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10299,13 +9614,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>17</v>
-      </c>
-      <c r="G319" t="s">
-        <v>227</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10325,13 +9638,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>324</v>
-      </c>
-      <c r="G320" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10351,13 +9662,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>17</v>
-      </c>
-      <c r="G321" t="s">
-        <v>227</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10377,13 +9686,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>324</v>
-      </c>
-      <c r="G322" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10403,13 +9710,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>17</v>
-      </c>
-      <c r="G323" t="s">
-        <v>227</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10429,13 +9734,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>324</v>
-      </c>
-      <c r="G324" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10455,13 +9758,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>17</v>
-      </c>
-      <c r="G325" t="s">
-        <v>227</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10481,13 +9782,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>324</v>
-      </c>
-      <c r="G326" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10507,13 +9806,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>17</v>
-      </c>
-      <c r="G327" t="s">
-        <v>227</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10533,13 +9830,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>324</v>
-      </c>
-      <c r="G328" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10559,13 +9854,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>17</v>
-      </c>
-      <c r="G329" t="s">
-        <v>227</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10585,13 +9878,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>324</v>
-      </c>
-      <c r="G330" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10611,13 +9902,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>17</v>
-      </c>
-      <c r="G331" t="s">
-        <v>227</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10637,13 +9926,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>324</v>
-      </c>
-      <c r="G332" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10663,13 +9950,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>17</v>
-      </c>
-      <c r="G333" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10689,13 +9974,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>324</v>
-      </c>
-      <c r="G334" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10715,13 +9998,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>17</v>
-      </c>
-      <c r="G335" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10741,13 +10022,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>324</v>
-      </c>
-      <c r="G336" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10769,11 +10048,9 @@
       <c r="F337" t="s">
         <v>11</v>
       </c>
-      <c r="G337" t="s">
-        <v>12</v>
-      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10793,13 +10070,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>17</v>
-      </c>
-      <c r="G338" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10819,13 +10094,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>324</v>
-      </c>
-      <c r="G339" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10845,13 +10118,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>17</v>
-      </c>
-      <c r="G340" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10873,11 +10144,9 @@
       <c r="F341" t="s">
         <v>11</v>
       </c>
-      <c r="G341" t="s">
-        <v>12</v>
-      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10897,13 +10166,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>17</v>
-      </c>
-      <c r="G342" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10925,11 +10192,9 @@
       <c r="F343" t="s">
         <v>11</v>
       </c>
-      <c r="G343" t="s">
-        <v>12</v>
-      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10949,13 +10214,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>17</v>
-      </c>
-      <c r="G344" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10977,11 +10240,9 @@
       <c r="F345" t="s">
         <v>11</v>
       </c>
-      <c r="G345" t="s">
-        <v>12</v>
-      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11001,13 +10262,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>17</v>
-      </c>
-      <c r="G346" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11029,11 +10288,9 @@
       <c r="F347" t="s">
         <v>11</v>
       </c>
-      <c r="G347" t="s">
-        <v>12</v>
-      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11053,13 +10310,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>17</v>
-      </c>
-      <c r="G348" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11081,11 +10336,9 @@
       <c r="F349" t="s">
         <v>11</v>
       </c>
-      <c r="G349" t="s">
-        <v>12</v>
-      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11107,11 +10360,9 @@
       <c r="F350" t="s">
         <v>11</v>
       </c>
-      <c r="G350" t="s">
-        <v>12</v>
-      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11131,13 +10382,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>17</v>
-      </c>
-      <c r="G351" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11159,11 +10408,9 @@
       <c r="F352" t="s">
         <v>11</v>
       </c>
-      <c r="G352" t="s">
-        <v>12</v>
-      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11183,13 +10430,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>17</v>
-      </c>
-      <c r="G353" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11209,13 +10454,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>17</v>
-      </c>
-      <c r="G354" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11237,11 +10480,9 @@
       <c r="F355" t="s">
         <v>11</v>
       </c>
-      <c r="G355" t="s">
-        <v>12</v>
-      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11261,13 +10502,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>17</v>
-      </c>
-      <c r="G356" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11287,13 +10526,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>17</v>
-      </c>
-      <c r="G357" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11315,11 +10552,9 @@
       <c r="F358" t="s">
         <v>11</v>
       </c>
-      <c r="G358" t="s">
-        <v>12</v>
-      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11339,13 +10574,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>17</v>
-      </c>
-      <c r="G359" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11367,11 +10600,9 @@
       <c r="F360" t="s">
         <v>11</v>
       </c>
-      <c r="G360" t="s">
-        <v>12</v>
-      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11391,13 +10622,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>17</v>
-      </c>
-      <c r="G361" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11419,11 +10648,9 @@
       <c r="F362" t="s">
         <v>11</v>
       </c>
-      <c r="G362" t="s">
-        <v>12</v>
-      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11443,13 +10670,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>392</v>
-      </c>
-      <c r="G363" t="s">
-        <v>393</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11469,13 +10694,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>17</v>
-      </c>
-      <c r="G364" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11495,13 +10718,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>392</v>
-      </c>
-      <c r="G365" t="s">
-        <v>393</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11521,13 +10742,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>17</v>
-      </c>
-      <c r="G366" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11547,13 +10766,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>392</v>
-      </c>
-      <c r="G367" t="s">
-        <v>393</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11573,13 +10790,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>17</v>
-      </c>
-      <c r="G368" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11599,13 +10814,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>392</v>
-      </c>
-      <c r="G369" t="s">
-        <v>393</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11625,13 +10838,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>17</v>
-      </c>
-      <c r="G370" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11651,13 +10862,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>392</v>
-      </c>
-      <c r="G371" t="s">
-        <v>393</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11677,13 +10886,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>17</v>
-      </c>
-      <c r="G372" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11703,13 +10910,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>392</v>
-      </c>
-      <c r="G373" t="s">
-        <v>393</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11729,13 +10934,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>17</v>
-      </c>
-      <c r="G374" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11755,13 +10958,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>392</v>
-      </c>
-      <c r="G375" t="s">
-        <v>393</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11781,13 +10982,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>17</v>
-      </c>
-      <c r="G376" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11807,13 +11006,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>392</v>
-      </c>
-      <c r="G377" t="s">
-        <v>393</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11833,13 +11030,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>17</v>
-      </c>
-      <c r="G378" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11859,13 +11054,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>392</v>
-      </c>
-      <c r="G379" t="s">
+        <v>376</v>
+      </c>
+      <c r="G379" t="s"/>
+      <c r="H379" t="s">
         <v>393</v>
-      </c>
-      <c r="H379" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11885,13 +11078,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>17</v>
-      </c>
-      <c r="G380" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11911,13 +11102,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>392</v>
-      </c>
-      <c r="G381" t="s">
-        <v>393</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11937,13 +11126,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>17</v>
-      </c>
-      <c r="G382" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11963,13 +11150,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>392</v>
-      </c>
-      <c r="G383" t="s">
-        <v>393</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11989,13 +11174,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>17</v>
-      </c>
-      <c r="G384" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12015,13 +11198,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>17</v>
-      </c>
-      <c r="G385" t="s">
-        <v>227</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12041,13 +11222,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>392</v>
-      </c>
-      <c r="G386" t="s">
-        <v>393</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12067,13 +11246,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>17</v>
-      </c>
-      <c r="G387" t="s">
-        <v>227</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12093,13 +11270,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>392</v>
-      </c>
-      <c r="G388" t="s">
-        <v>393</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12119,13 +11294,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>17</v>
-      </c>
-      <c r="G389" t="s">
-        <v>227</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12145,13 +11318,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>392</v>
-      </c>
-      <c r="G390" t="s">
-        <v>393</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12171,13 +11342,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>17</v>
-      </c>
-      <c r="G391" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12197,13 +11366,11 @@
         <v>10</v>
       </c>
       <c r="F392" t="s">
-        <v>392</v>
-      </c>
-      <c r="G392" t="s">
-        <v>393</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12223,13 +11390,11 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>17</v>
-      </c>
-      <c r="G393" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12249,13 +11414,11 @@
         <v>10</v>
       </c>
       <c r="F394" t="s">
-        <v>392</v>
-      </c>
-      <c r="G394" t="s">
-        <v>393</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12277,11 +11440,9 @@
       <c r="F395" t="s">
         <v>11</v>
       </c>
-      <c r="G395" t="s">
-        <v>12</v>
-      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12301,13 +11462,11 @@
         <v>10</v>
       </c>
       <c r="F396" t="s">
-        <v>392</v>
-      </c>
-      <c r="G396" t="s">
-        <v>393</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12329,11 +11488,9 @@
       <c r="F397" t="s">
         <v>11</v>
       </c>
-      <c r="G397" t="s">
-        <v>12</v>
-      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12353,13 +11510,11 @@
         <v>10</v>
       </c>
       <c r="F398" t="s">
-        <v>30</v>
-      </c>
-      <c r="G398" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12379,13 +11534,11 @@
         <v>10</v>
       </c>
       <c r="F399" t="s">
-        <v>17</v>
-      </c>
-      <c r="G399" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12405,13 +11558,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>30</v>
-      </c>
-      <c r="G400" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12431,13 +11582,11 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>17</v>
-      </c>
-      <c r="G401" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12457,13 +11606,11 @@
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>30</v>
-      </c>
-      <c r="G402" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12483,13 +11630,11 @@
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>17</v>
-      </c>
-      <c r="G403" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12509,13 +11654,11 @@
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>30</v>
-      </c>
-      <c r="G404" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12535,13 +11678,11 @@
         <v>10</v>
       </c>
       <c r="F405" t="s">
-        <v>17</v>
-      </c>
-      <c r="G405" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12561,13 +11702,11 @@
         <v>10</v>
       </c>
       <c r="F406" t="s">
-        <v>30</v>
-      </c>
-      <c r="G406" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12587,13 +11726,11 @@
         <v>10</v>
       </c>
       <c r="F407" t="s">
-        <v>17</v>
-      </c>
-      <c r="G407" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12613,13 +11750,11 @@
         <v>10</v>
       </c>
       <c r="F408" t="s">
-        <v>17</v>
-      </c>
-      <c r="G408" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12639,13 +11774,11 @@
         <v>10</v>
       </c>
       <c r="F409" t="s">
-        <v>30</v>
-      </c>
-      <c r="G409" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12665,13 +11798,11 @@
         <v>10</v>
       </c>
       <c r="F410" t="s">
-        <v>30</v>
-      </c>
-      <c r="G410" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G410" t="s"/>
       <c r="H410" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12691,13 +11822,11 @@
         <v>10</v>
       </c>
       <c r="F411" t="s">
-        <v>17</v>
-      </c>
-      <c r="G411" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G411" t="s"/>
       <c r="H411" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12717,13 +11846,11 @@
         <v>10</v>
       </c>
       <c r="F412" t="s">
-        <v>17</v>
-      </c>
-      <c r="G412" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G412" t="s"/>
       <c r="H412" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12743,13 +11870,11 @@
         <v>10</v>
       </c>
       <c r="F413" t="s">
-        <v>30</v>
-      </c>
-      <c r="G413" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G413" t="s"/>
       <c r="H413" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12769,13 +11894,11 @@
         <v>10</v>
       </c>
       <c r="F414" t="s">
-        <v>17</v>
-      </c>
-      <c r="G414" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G414" t="s"/>
       <c r="H414" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12795,13 +11918,11 @@
         <v>10</v>
       </c>
       <c r="F415" t="s">
-        <v>30</v>
-      </c>
-      <c r="G415" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G415" t="s"/>
       <c r="H415" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12821,13 +11942,11 @@
         <v>10</v>
       </c>
       <c r="F416" t="s">
-        <v>17</v>
-      </c>
-      <c r="G416" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G416" t="s"/>
       <c r="H416" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12847,13 +11966,11 @@
         <v>10</v>
       </c>
       <c r="F417" t="s">
-        <v>30</v>
-      </c>
-      <c r="G417" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G417" t="s"/>
       <c r="H417" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12873,13 +11990,11 @@
         <v>10</v>
       </c>
       <c r="F418" t="s">
-        <v>17</v>
-      </c>
-      <c r="G418" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G418" t="s"/>
       <c r="H418" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12899,13 +12014,11 @@
         <v>10</v>
       </c>
       <c r="F419" t="s">
-        <v>30</v>
-      </c>
-      <c r="G419" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G419" t="s"/>
       <c r="H419" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12925,13 +12038,11 @@
         <v>10</v>
       </c>
       <c r="F420" t="s">
-        <v>17</v>
-      </c>
-      <c r="G420" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G420" t="s"/>
       <c r="H420" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12951,13 +12062,11 @@
         <v>10</v>
       </c>
       <c r="F421" t="s">
-        <v>17</v>
-      </c>
-      <c r="G421" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G421" t="s"/>
       <c r="H421" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12977,13 +12086,11 @@
         <v>10</v>
       </c>
       <c r="F422" t="s">
-        <v>30</v>
-      </c>
-      <c r="G422" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G422" t="s"/>
       <c r="H422" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13003,13 +12110,11 @@
         <v>10</v>
       </c>
       <c r="F423" t="s">
-        <v>30</v>
-      </c>
-      <c r="G423" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G423" t="s"/>
       <c r="H423" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13029,13 +12134,11 @@
         <v>10</v>
       </c>
       <c r="F424" t="s">
-        <v>17</v>
-      </c>
-      <c r="G424" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G424" t="s"/>
       <c r="H424" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13055,13 +12158,11 @@
         <v>10</v>
       </c>
       <c r="F425" t="s">
-        <v>30</v>
-      </c>
-      <c r="G425" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G425" t="s"/>
       <c r="H425" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13081,13 +12182,11 @@
         <v>10</v>
       </c>
       <c r="F426" t="s">
-        <v>17</v>
-      </c>
-      <c r="G426" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G426" t="s"/>
       <c r="H426" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13107,13 +12206,11 @@
         <v>10</v>
       </c>
       <c r="F427" t="s">
-        <v>30</v>
-      </c>
-      <c r="G427" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G427" t="s"/>
       <c r="H427" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13133,13 +12230,11 @@
         <v>10</v>
       </c>
       <c r="F428" t="s">
-        <v>30</v>
-      </c>
-      <c r="G428" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G428" t="s"/>
       <c r="H428" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13159,13 +12254,11 @@
         <v>10</v>
       </c>
       <c r="F429" t="s">
-        <v>17</v>
-      </c>
-      <c r="G429" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G429" t="s"/>
       <c r="H429" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13185,13 +12278,11 @@
         <v>10</v>
       </c>
       <c r="F430" t="s">
-        <v>30</v>
-      </c>
-      <c r="G430" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G430" t="s"/>
       <c r="H430" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13211,13 +12302,11 @@
         <v>10</v>
       </c>
       <c r="F431" t="s">
-        <v>17</v>
-      </c>
-      <c r="G431" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G431" t="s"/>
       <c r="H431" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13237,13 +12326,11 @@
         <v>10</v>
       </c>
       <c r="F432" t="s">
-        <v>30</v>
-      </c>
-      <c r="G432" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G432" t="s"/>
       <c r="H432" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13263,13 +12350,11 @@
         <v>10</v>
       </c>
       <c r="F433" t="s">
-        <v>30</v>
-      </c>
-      <c r="G433" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G433" t="s"/>
       <c r="H433" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13289,13 +12374,11 @@
         <v>10</v>
       </c>
       <c r="F434" t="s">
-        <v>17</v>
-      </c>
-      <c r="G434" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G434" t="s"/>
       <c r="H434" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13315,13 +12398,11 @@
         <v>10</v>
       </c>
       <c r="F435" t="s">
-        <v>30</v>
-      </c>
-      <c r="G435" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G435" t="s"/>
       <c r="H435" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13341,13 +12422,11 @@
         <v>10</v>
       </c>
       <c r="F436" t="s">
-        <v>30</v>
-      </c>
-      <c r="G436" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G436" t="s"/>
       <c r="H436" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13367,13 +12446,11 @@
         <v>10</v>
       </c>
       <c r="F437" t="s">
-        <v>17</v>
-      </c>
-      <c r="G437" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G437" t="s"/>
       <c r="H437" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13393,13 +12470,11 @@
         <v>10</v>
       </c>
       <c r="F438" t="s">
-        <v>30</v>
-      </c>
-      <c r="G438" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G438" t="s"/>
       <c r="H438" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13419,13 +12494,11 @@
         <v>10</v>
       </c>
       <c r="F439" t="s">
-        <v>30</v>
-      </c>
-      <c r="G439" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G439" t="s"/>
       <c r="H439" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13445,13 +12518,11 @@
         <v>10</v>
       </c>
       <c r="F440" t="s">
-        <v>17</v>
-      </c>
-      <c r="G440" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G440" t="s"/>
       <c r="H440" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13471,13 +12542,11 @@
         <v>10</v>
       </c>
       <c r="F441" t="s">
-        <v>30</v>
-      </c>
-      <c r="G441" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G441" t="s"/>
       <c r="H441" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13497,13 +12566,11 @@
         <v>10</v>
       </c>
       <c r="F442" t="s">
-        <v>17</v>
-      </c>
-      <c r="G442" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G442" t="s"/>
       <c r="H442" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13523,13 +12590,11 @@
         <v>10</v>
       </c>
       <c r="F443" t="s">
-        <v>17</v>
-      </c>
-      <c r="G443" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G443" t="s"/>
       <c r="H443" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13549,13 +12614,11 @@
         <v>10</v>
       </c>
       <c r="F444" t="s">
-        <v>30</v>
-      </c>
-      <c r="G444" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G444" t="s"/>
       <c r="H444" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13575,13 +12638,11 @@
         <v>10</v>
       </c>
       <c r="F445" t="s">
-        <v>17</v>
-      </c>
-      <c r="G445" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G445" t="s"/>
       <c r="H445" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13601,13 +12662,11 @@
         <v>10</v>
       </c>
       <c r="F446" t="s">
-        <v>30</v>
-      </c>
-      <c r="G446" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G446" t="s"/>
       <c r="H446" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13627,13 +12686,11 @@
         <v>10</v>
       </c>
       <c r="F447" t="s">
-        <v>17</v>
-      </c>
-      <c r="G447" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G447" t="s"/>
       <c r="H447" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13653,13 +12710,11 @@
         <v>10</v>
       </c>
       <c r="F448" t="s">
-        <v>30</v>
-      </c>
-      <c r="G448" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G448" t="s"/>
       <c r="H448" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13679,13 +12734,11 @@
         <v>10</v>
       </c>
       <c r="F449" t="s">
-        <v>17</v>
-      </c>
-      <c r="G449" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G449" t="s"/>
       <c r="H449" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13705,13 +12758,11 @@
         <v>10</v>
       </c>
       <c r="F450" t="s">
-        <v>30</v>
-      </c>
-      <c r="G450" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G450" t="s"/>
       <c r="H450" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13731,13 +12782,11 @@
         <v>10</v>
       </c>
       <c r="F451" t="s">
-        <v>17</v>
-      </c>
-      <c r="G451" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G451" t="s"/>
       <c r="H451" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13759,11 +12808,9 @@
       <c r="F452" t="s">
         <v>11</v>
       </c>
-      <c r="G452" t="s">
-        <v>12</v>
-      </c>
+      <c r="G452" t="s"/>
       <c r="H452" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13783,13 +12830,11 @@
         <v>10</v>
       </c>
       <c r="F453" t="s">
-        <v>324</v>
-      </c>
-      <c r="G453" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G453" t="s"/>
       <c r="H453" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13809,13 +12854,11 @@
         <v>10</v>
       </c>
       <c r="F454" t="s">
-        <v>17</v>
-      </c>
-      <c r="G454" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G454" t="s"/>
       <c r="H454" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13835,13 +12878,11 @@
         <v>10</v>
       </c>
       <c r="F455" t="s">
-        <v>324</v>
-      </c>
-      <c r="G455" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G455" t="s"/>
       <c r="H455" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13861,13 +12902,11 @@
         <v>10</v>
       </c>
       <c r="F456" t="s">
-        <v>17</v>
-      </c>
-      <c r="G456" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G456" t="s"/>
       <c r="H456" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13887,13 +12926,11 @@
         <v>10</v>
       </c>
       <c r="F457" t="s">
-        <v>324</v>
-      </c>
-      <c r="G457" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G457" t="s"/>
       <c r="H457" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13913,13 +12950,11 @@
         <v>10</v>
       </c>
       <c r="F458" t="s">
-        <v>17</v>
-      </c>
-      <c r="G458" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G458" t="s"/>
       <c r="H458" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13939,13 +12974,11 @@
         <v>10</v>
       </c>
       <c r="F459" t="s">
-        <v>324</v>
-      </c>
-      <c r="G459" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G459" t="s"/>
       <c r="H459" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -13965,13 +12998,11 @@
         <v>10</v>
       </c>
       <c r="F460" t="s">
-        <v>17</v>
-      </c>
-      <c r="G460" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G460" t="s"/>
       <c r="H460" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13991,13 +13022,11 @@
         <v>10</v>
       </c>
       <c r="F461" t="s">
-        <v>324</v>
-      </c>
-      <c r="G461" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G461" t="s"/>
       <c r="H461" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14017,13 +13046,11 @@
         <v>10</v>
       </c>
       <c r="F462" t="s">
-        <v>17</v>
-      </c>
-      <c r="G462" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G462" t="s"/>
       <c r="H462" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14043,13 +13070,11 @@
         <v>10</v>
       </c>
       <c r="F463" t="s">
-        <v>324</v>
-      </c>
-      <c r="G463" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G463" t="s"/>
       <c r="H463" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14069,13 +13094,11 @@
         <v>10</v>
       </c>
       <c r="F464" t="s">
-        <v>17</v>
-      </c>
-      <c r="G464" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G464" t="s"/>
       <c r="H464" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14095,13 +13118,11 @@
         <v>10</v>
       </c>
       <c r="F465" t="s">
-        <v>324</v>
-      </c>
-      <c r="G465" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G465" t="s"/>
       <c r="H465" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14121,13 +13142,11 @@
         <v>10</v>
       </c>
       <c r="F466" t="s">
-        <v>17</v>
-      </c>
-      <c r="G466" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G466" t="s"/>
       <c r="H466" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14147,13 +13166,11 @@
         <v>10</v>
       </c>
       <c r="F467" t="s">
-        <v>324</v>
-      </c>
-      <c r="G467" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G467" t="s"/>
       <c r="H467" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14173,13 +13190,11 @@
         <v>10</v>
       </c>
       <c r="F468" t="s">
-        <v>17</v>
-      </c>
-      <c r="G468" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G468" t="s"/>
       <c r="H468" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14199,13 +13214,11 @@
         <v>10</v>
       </c>
       <c r="F469" t="s">
-        <v>324</v>
-      </c>
-      <c r="G469" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G469" t="s"/>
       <c r="H469" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14225,13 +13238,11 @@
         <v>10</v>
       </c>
       <c r="F470" t="s">
-        <v>17</v>
-      </c>
-      <c r="G470" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G470" t="s"/>
       <c r="H470" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14251,13 +13262,11 @@
         <v>10</v>
       </c>
       <c r="F471" t="s">
-        <v>324</v>
-      </c>
-      <c r="G471" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G471" t="s"/>
       <c r="H471" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14277,13 +13286,11 @@
         <v>10</v>
       </c>
       <c r="F472" t="s">
-        <v>17</v>
-      </c>
-      <c r="G472" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G472" t="s"/>
       <c r="H472" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14303,13 +13310,11 @@
         <v>10</v>
       </c>
       <c r="F473" t="s">
-        <v>324</v>
-      </c>
-      <c r="G473" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G473" t="s"/>
       <c r="H473" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14329,13 +13334,11 @@
         <v>10</v>
       </c>
       <c r="F474" t="s">
-        <v>17</v>
-      </c>
-      <c r="G474" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G474" t="s"/>
       <c r="H474" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14355,13 +13358,11 @@
         <v>10</v>
       </c>
       <c r="F475" t="s">
-        <v>17</v>
-      </c>
-      <c r="G475" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G475" t="s"/>
       <c r="H475" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14381,13 +13382,11 @@
         <v>10</v>
       </c>
       <c r="F476" t="s">
-        <v>324</v>
-      </c>
-      <c r="G476" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G476" t="s"/>
       <c r="H476" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14407,13 +13406,11 @@
         <v>10</v>
       </c>
       <c r="F477" t="s">
-        <v>17</v>
-      </c>
-      <c r="G477" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G477" t="s"/>
       <c r="H477" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14433,13 +13430,11 @@
         <v>10</v>
       </c>
       <c r="F478" t="s">
-        <v>324</v>
-      </c>
-      <c r="G478" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G478" t="s"/>
       <c r="H478" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14459,13 +13454,11 @@
         <v>10</v>
       </c>
       <c r="F479" t="s">
-        <v>17</v>
-      </c>
-      <c r="G479" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G479" t="s"/>
       <c r="H479" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14485,13 +13478,11 @@
         <v>10</v>
       </c>
       <c r="F480" t="s">
-        <v>324</v>
-      </c>
-      <c r="G480" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G480" t="s"/>
       <c r="H480" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14511,13 +13502,11 @@
         <v>10</v>
       </c>
       <c r="F481" t="s">
-        <v>17</v>
-      </c>
-      <c r="G481" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G481" t="s"/>
       <c r="H481" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14537,13 +13526,11 @@
         <v>10</v>
       </c>
       <c r="F482" t="s">
-        <v>324</v>
-      </c>
-      <c r="G482" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G482" t="s"/>
       <c r="H482" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14563,13 +13550,11 @@
         <v>10</v>
       </c>
       <c r="F483" t="s">
-        <v>17</v>
-      </c>
-      <c r="G483" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G483" t="s"/>
       <c r="H483" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14589,13 +13574,11 @@
         <v>10</v>
       </c>
       <c r="F484" t="s">
-        <v>324</v>
-      </c>
-      <c r="G484" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G484" t="s"/>
       <c r="H484" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14615,13 +13598,11 @@
         <v>10</v>
       </c>
       <c r="F485" t="s">
-        <v>17</v>
-      </c>
-      <c r="G485" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G485" t="s"/>
       <c r="H485" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14641,13 +13622,11 @@
         <v>10</v>
       </c>
       <c r="F486" t="s">
-        <v>324</v>
-      </c>
-      <c r="G486" t="s">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G486" t="s"/>
       <c r="H486" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14669,11 +13648,9 @@
       <c r="F487" t="s">
         <v>11</v>
       </c>
-      <c r="G487" t="s">
-        <v>12</v>
-      </c>
+      <c r="G487" t="s"/>
       <c r="H487" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14693,13 +13670,11 @@
         <v>10</v>
       </c>
       <c r="F488" t="s">
-        <v>17</v>
-      </c>
-      <c r="G488" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G488" t="s"/>
       <c r="H488" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14721,11 +13696,9 @@
       <c r="F489" t="s">
         <v>11</v>
       </c>
-      <c r="G489" t="s">
-        <v>12</v>
-      </c>
+      <c r="G489" t="s"/>
       <c r="H489" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14745,13 +13718,11 @@
         <v>10</v>
       </c>
       <c r="F490" t="s">
-        <v>17</v>
-      </c>
-      <c r="G490" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G490" t="s"/>
       <c r="H490" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14773,11 +13744,9 @@
       <c r="F491" t="s">
         <v>11</v>
       </c>
-      <c r="G491" t="s">
-        <v>12</v>
-      </c>
+      <c r="G491" t="s"/>
       <c r="H491" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14797,13 +13766,11 @@
         <v>10</v>
       </c>
       <c r="F492" t="s">
-        <v>17</v>
-      </c>
-      <c r="G492" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G492" t="s"/>
       <c r="H492" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14825,11 +13792,9 @@
       <c r="F493" t="s">
         <v>11</v>
       </c>
-      <c r="G493" t="s">
-        <v>12</v>
-      </c>
+      <c r="G493" t="s"/>
       <c r="H493" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14849,13 +13814,11 @@
         <v>10</v>
       </c>
       <c r="F494" t="s">
-        <v>17</v>
-      </c>
-      <c r="G494" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G494" t="s"/>
       <c r="H494" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14877,11 +13840,9 @@
       <c r="F495" t="s">
         <v>11</v>
       </c>
-      <c r="G495" t="s">
-        <v>12</v>
-      </c>
+      <c r="G495" t="s"/>
       <c r="H495" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14901,13 +13862,11 @@
         <v>10</v>
       </c>
       <c r="F496" t="s">
-        <v>17</v>
-      </c>
-      <c r="G496" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G496" t="s"/>
       <c r="H496" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14929,11 +13888,9 @@
       <c r="F497" t="s">
         <v>11</v>
       </c>
-      <c r="G497" t="s">
-        <v>12</v>
-      </c>
+      <c r="G497" t="s"/>
       <c r="H497" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -14953,13 +13910,11 @@
         <v>10</v>
       </c>
       <c r="F498" t="s">
-        <v>17</v>
-      </c>
-      <c r="G498" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G498" t="s"/>
       <c r="H498" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -14979,13 +13934,11 @@
         <v>10</v>
       </c>
       <c r="F499" t="s">
-        <v>17</v>
-      </c>
-      <c r="G499" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G499" t="s"/>
       <c r="H499" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15007,11 +13960,9 @@
       <c r="F500" t="s">
         <v>11</v>
       </c>
-      <c r="G500" t="s">
-        <v>12</v>
-      </c>
+      <c r="G500" t="s"/>
       <c r="H500" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15031,13 +13982,11 @@
         <v>10</v>
       </c>
       <c r="F501" t="s">
-        <v>17</v>
-      </c>
-      <c r="G501" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G501" t="s"/>
       <c r="H501" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15059,11 +14008,9 @@
       <c r="F502" t="s">
         <v>11</v>
       </c>
-      <c r="G502" t="s">
-        <v>12</v>
-      </c>
+      <c r="G502" t="s"/>
       <c r="H502" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15085,11 +14032,9 @@
       <c r="F503" t="s">
         <v>11</v>
       </c>
-      <c r="G503" t="s">
-        <v>12</v>
-      </c>
+      <c r="G503" t="s"/>
       <c r="H503" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15109,13 +14054,11 @@
         <v>10</v>
       </c>
       <c r="F504" t="s">
-        <v>17</v>
-      </c>
-      <c r="G504" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G504" t="s"/>
       <c r="H504" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15137,11 +14080,9 @@
       <c r="F505" t="s">
         <v>11</v>
       </c>
-      <c r="G505" t="s">
-        <v>12</v>
-      </c>
+      <c r="G505" t="s"/>
       <c r="H505" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15163,11 +14104,9 @@
       <c r="F506" t="s">
         <v>11</v>
       </c>
-      <c r="G506" t="s">
-        <v>12</v>
-      </c>
+      <c r="G506" t="s"/>
       <c r="H506" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15187,13 +14126,11 @@
         <v>10</v>
       </c>
       <c r="F507" t="s">
-        <v>17</v>
-      </c>
-      <c r="G507" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G507" t="s"/>
       <c r="H507" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15215,11 +14152,9 @@
       <c r="F508" t="s">
         <v>11</v>
       </c>
-      <c r="G508" t="s">
-        <v>12</v>
-      </c>
+      <c r="G508" t="s"/>
       <c r="H508" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15239,13 +14174,11 @@
         <v>10</v>
       </c>
       <c r="F509" t="s">
-        <v>17</v>
-      </c>
-      <c r="G509" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G509" t="s"/>
       <c r="H509" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15267,11 +14200,9 @@
       <c r="F510" t="s">
         <v>11</v>
       </c>
-      <c r="G510" t="s">
-        <v>12</v>
-      </c>
+      <c r="G510" t="s"/>
       <c r="H510" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15291,13 +14222,11 @@
         <v>10</v>
       </c>
       <c r="F511" t="s">
-        <v>17</v>
-      </c>
-      <c r="G511" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G511" t="s"/>
       <c r="H511" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15319,11 +14248,9 @@
       <c r="F512" t="s">
         <v>11</v>
       </c>
-      <c r="G512" t="s">
-        <v>12</v>
-      </c>
+      <c r="G512" t="s"/>
       <c r="H512" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15343,13 +14270,11 @@
         <v>10</v>
       </c>
       <c r="F513" t="s">
-        <v>17</v>
-      </c>
-      <c r="G513" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G513" t="s"/>
       <c r="H513" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15371,11 +14296,9 @@
       <c r="F514" t="s">
         <v>11</v>
       </c>
-      <c r="G514" t="s">
-        <v>12</v>
-      </c>
+      <c r="G514" t="s"/>
       <c r="H514" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15395,13 +14318,11 @@
         <v>10</v>
       </c>
       <c r="F515" t="s">
-        <v>17</v>
-      </c>
-      <c r="G515" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G515" t="s"/>
       <c r="H515" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15423,11 +14344,9 @@
       <c r="F516" t="s">
         <v>11</v>
       </c>
-      <c r="G516" t="s">
-        <v>12</v>
-      </c>
+      <c r="G516" t="s"/>
       <c r="H516" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15449,11 +14368,9 @@
       <c r="F517" t="s">
         <v>11</v>
       </c>
-      <c r="G517" t="s">
-        <v>12</v>
-      </c>
+      <c r="G517" t="s"/>
       <c r="H517" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15473,13 +14390,11 @@
         <v>10</v>
       </c>
       <c r="F518" t="s">
-        <v>17</v>
-      </c>
-      <c r="G518" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G518" t="s"/>
       <c r="H518" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15501,11 +14416,9 @@
       <c r="F519" t="s">
         <v>11</v>
       </c>
-      <c r="G519" t="s">
-        <v>12</v>
-      </c>
+      <c r="G519" t="s"/>
       <c r="H519" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15525,13 +14438,11 @@
         <v>10</v>
       </c>
       <c r="F520" t="s">
-        <v>17</v>
-      </c>
-      <c r="G520" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G520" t="s"/>
       <c r="H520" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15551,13 +14462,11 @@
         <v>10</v>
       </c>
       <c r="F521" t="s">
-        <v>17</v>
-      </c>
-      <c r="G521" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G521" t="s"/>
       <c r="H521" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15577,13 +14486,11 @@
         <v>10</v>
       </c>
       <c r="F522" t="s">
-        <v>17</v>
-      </c>
-      <c r="G522" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G522" t="s"/>
       <c r="H522" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15603,13 +14510,11 @@
         <v>10</v>
       </c>
       <c r="F523" t="s">
-        <v>17</v>
-      </c>
-      <c r="G523" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G523" t="s"/>
       <c r="H523" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15631,11 +14536,9 @@
       <c r="F524" t="s">
         <v>11</v>
       </c>
-      <c r="G524" t="s">
-        <v>12</v>
-      </c>
+      <c r="G524" t="s"/>
       <c r="H524" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15655,13 +14558,11 @@
         <v>10</v>
       </c>
       <c r="F525" t="s">
-        <v>17</v>
-      </c>
-      <c r="G525" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G525" t="s"/>
       <c r="H525" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15683,11 +14584,9 @@
       <c r="F526" t="s">
         <v>11</v>
       </c>
-      <c r="G526" t="s">
-        <v>12</v>
-      </c>
+      <c r="G526" t="s"/>
       <c r="H526" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
